--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna3-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna3-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Epha2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Epha2</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H2">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I2">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J2">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.244885</v>
+        <v>19.163974</v>
       </c>
       <c r="N2">
-        <v>72.734655</v>
+        <v>57.491922</v>
       </c>
       <c r="O2">
-        <v>0.6895205882382217</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="P2">
-        <v>0.6895205882382218</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="Q2">
-        <v>2.919415500761666</v>
+        <v>6.120219512622667</v>
       </c>
       <c r="R2">
-        <v>26.274739506855</v>
+        <v>55.081975613604</v>
       </c>
       <c r="S2">
-        <v>0.3560099975641655</v>
+        <v>0.5462498579238727</v>
       </c>
       <c r="T2">
-        <v>0.3560099975641655</v>
+        <v>0.5462498579238727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H3">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I3">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J3">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.295537</v>
       </c>
       <c r="O3">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148322</v>
       </c>
       <c r="P3">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148323</v>
       </c>
       <c r="Q3">
-        <v>0.09213800904633332</v>
+        <v>0.2443680755593333</v>
       </c>
       <c r="R3">
-        <v>0.829242081417</v>
+        <v>2.199312680034</v>
       </c>
       <c r="S3">
-        <v>0.01123582866762002</v>
+        <v>0.02181065994121736</v>
       </c>
       <c r="T3">
-        <v>0.01123582866762002</v>
+        <v>0.02181065994121736</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H4">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I4">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J4">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.516752666666667</v>
+        <v>7.880893333333333</v>
       </c>
       <c r="N4">
-        <v>28.550258</v>
+        <v>23.64268</v>
       </c>
       <c r="O4">
-        <v>0.2706548988307292</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="P4">
-        <v>0.2706548988307293</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="Q4">
-        <v>1.145947083353111</v>
+        <v>2.516847348862222</v>
       </c>
       <c r="R4">
-        <v>10.313523750178</v>
+        <v>22.65162613976</v>
       </c>
       <c r="S4">
-        <v>0.1397432528006944</v>
+        <v>0.224636960144411</v>
       </c>
       <c r="T4">
-        <v>0.1397432528006945</v>
+        <v>0.224636960144411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H5">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I5">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J5">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6351283333333334</v>
+        <v>0.183999</v>
       </c>
       <c r="N5">
-        <v>1.905385</v>
+        <v>0.551997</v>
       </c>
       <c r="O5">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625477</v>
       </c>
       <c r="P5">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625476</v>
       </c>
       <c r="Q5">
-        <v>0.07647813142055555</v>
+        <v>0.058762043306</v>
       </c>
       <c r="R5">
-        <v>0.688303182785</v>
+        <v>0.5288583897539999</v>
       </c>
       <c r="S5">
-        <v>0.009326174836586459</v>
+        <v>0.005244706948993704</v>
       </c>
       <c r="T5">
-        <v>0.009326174836586459</v>
+        <v>0.005244706948993703</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H6">
         <v>0.242609</v>
       </c>
       <c r="I6">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J6">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.244885</v>
+        <v>19.163974</v>
       </c>
       <c r="N6">
-        <v>72.734655</v>
+        <v>57.491922</v>
       </c>
       <c r="O6">
-        <v>0.6895205882382217</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="P6">
-        <v>0.6895205882382218</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="Q6">
-        <v>1.960675768321667</v>
+        <v>1.549784189388667</v>
       </c>
       <c r="R6">
-        <v>17.646081914895</v>
+        <v>13.948057704498</v>
       </c>
       <c r="S6">
-        <v>0.2390958653614751</v>
+        <v>0.1383233708399206</v>
       </c>
       <c r="T6">
-        <v>0.2390958653614751</v>
+        <v>0.1383233708399206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H7">
         <v>0.242609</v>
       </c>
       <c r="I7">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J7">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>2.295537</v>
       </c>
       <c r="O7">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148322</v>
       </c>
       <c r="P7">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148323</v>
       </c>
       <c r="Q7">
-        <v>0.06187977067033333</v>
+        <v>0.06187977067033332</v>
       </c>
       <c r="R7">
         <v>0.556917936033</v>
       </c>
       <c r="S7">
-        <v>0.007545968362457818</v>
+        <v>0.005522974440265865</v>
       </c>
       <c r="T7">
-        <v>0.00754596836245782</v>
+        <v>0.005522974440265867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H8">
         <v>0.242609</v>
       </c>
       <c r="I8">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J8">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.516752666666667</v>
+        <v>7.880893333333333</v>
       </c>
       <c r="N8">
-        <v>28.550258</v>
+        <v>23.64268</v>
       </c>
       <c r="O8">
-        <v>0.2706548988307292</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="P8">
-        <v>0.2706548988307293</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="Q8">
-        <v>0.7696166159024446</v>
+        <v>0.6373252169022221</v>
       </c>
       <c r="R8">
-        <v>6.926549543122</v>
+        <v>5.73592695212</v>
       </c>
       <c r="S8">
-        <v>0.09385139233565316</v>
+        <v>0.056883386039687</v>
       </c>
       <c r="T8">
-        <v>0.09385139233565318</v>
+        <v>0.056883386039687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H9">
         <v>0.242609</v>
       </c>
       <c r="I9">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J9">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6351283333333334</v>
+        <v>0.183999</v>
       </c>
       <c r="N9">
-        <v>1.905385</v>
+        <v>0.551997</v>
       </c>
       <c r="O9">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625477</v>
       </c>
       <c r="P9">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625476</v>
       </c>
       <c r="Q9">
-        <v>0.05136261660722223</v>
+        <v>0.014879937797</v>
       </c>
       <c r="R9">
-        <v>0.4622635494650001</v>
+        <v>0.133919440173</v>
       </c>
       <c r="S9">
-        <v>0.006263447258006163</v>
+        <v>0.001328083721631774</v>
       </c>
       <c r="T9">
-        <v>0.006263447258006163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.031934</v>
-      </c>
-      <c r="H10">
-        <v>0.095802</v>
-      </c>
-      <c r="I10">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J10">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>24.244885</v>
-      </c>
-      <c r="N10">
-        <v>72.734655</v>
-      </c>
-      <c r="O10">
-        <v>0.6895205882382217</v>
-      </c>
-      <c r="P10">
-        <v>0.6895205882382218</v>
-      </c>
-      <c r="Q10">
-        <v>0.77423615759</v>
-      </c>
-      <c r="R10">
-        <v>6.968125418310001</v>
-      </c>
-      <c r="S10">
-        <v>0.09441472531258127</v>
-      </c>
-      <c r="T10">
-        <v>0.0944147253125813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.031934</v>
-      </c>
-      <c r="H11">
-        <v>0.095802</v>
-      </c>
-      <c r="I11">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J11">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.7651789999999999</v>
-      </c>
-      <c r="N11">
-        <v>2.295537</v>
-      </c>
-      <c r="O11">
-        <v>0.02176156637523891</v>
-      </c>
-      <c r="P11">
-        <v>0.02176156637523891</v>
-      </c>
-      <c r="Q11">
-        <v>0.024435226186</v>
-      </c>
-      <c r="R11">
-        <v>0.219917035674</v>
-      </c>
-      <c r="S11">
-        <v>0.002979769345161077</v>
-      </c>
-      <c r="T11">
-        <v>0.002979769345161077</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.031934</v>
-      </c>
-      <c r="H12">
-        <v>0.095802</v>
-      </c>
-      <c r="I12">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J12">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>9.516752666666667</v>
-      </c>
-      <c r="N12">
-        <v>28.550258</v>
-      </c>
-      <c r="O12">
-        <v>0.2706548988307292</v>
-      </c>
-      <c r="P12">
-        <v>0.2706548988307293</v>
-      </c>
-      <c r="Q12">
-        <v>0.3039079796573333</v>
-      </c>
-      <c r="R12">
-        <v>2.735171816916</v>
-      </c>
-      <c r="S12">
-        <v>0.03706025369438166</v>
-      </c>
-      <c r="T12">
-        <v>0.03706025369438168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.031934</v>
-      </c>
-      <c r="H13">
-        <v>0.095802</v>
-      </c>
-      <c r="I13">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J13">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.6351283333333334</v>
-      </c>
-      <c r="N13">
-        <v>1.905385</v>
-      </c>
-      <c r="O13">
-        <v>0.01806294655581008</v>
-      </c>
-      <c r="P13">
-        <v>0.01806294655581008</v>
-      </c>
-      <c r="Q13">
-        <v>0.02028218819666667</v>
-      </c>
-      <c r="R13">
-        <v>0.18253969377</v>
-      </c>
-      <c r="S13">
-        <v>0.002473324461217458</v>
-      </c>
-      <c r="T13">
-        <v>0.002473324461217458</v>
+        <v>0.001328083721631774</v>
       </c>
     </row>
   </sheetData>
